--- a/Light_intensity.xlsx
+++ b/Light_intensity.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://puresalmon-my.sharepoint.com/personal/jimmy_carrillonovoa_pure-salmon_com/Documents/Desktop/Diplomado PUCV/Trabajo Final Diplomado/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="106" documentId="8_{5A47721A-3019-413F-AB4F-8DF8DFD5AA83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8263B577-89EF-46CD-9332-E9C81BFCF4AA}"/>
+  <xr:revisionPtr revIDLastSave="132" documentId="8_{5A47721A-3019-413F-AB4F-8DF8DFD5AA83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54E97FD7-D637-4CAF-9594-FDF6CA81D174}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B91C4830-6237-428D-A344-7F6093B4A42E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="27">
   <si>
     <t>Module</t>
   </si>
@@ -105,13 +105,19 @@
     <t>Volume_m3</t>
   </si>
   <si>
-    <t>Light_Intensity_watt/sq2</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>watt_sq2</t>
+  </si>
+  <si>
+    <t>50m3</t>
+  </si>
+  <si>
+    <t>200m3</t>
   </si>
 </sst>
 </file>
@@ -119,7 +125,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -155,7 +161,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -478,11 +484,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{462BEBAE-FE42-4766-85A5-D843C74589D7}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A265" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -507,21 +514,21 @@
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>35</v>
       </c>
-      <c r="B2" s="1">
-        <v>50</v>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2">
         <v>0.155</v>
@@ -531,14 +538,14 @@
       <c r="A3" s="3">
         <v>42</v>
       </c>
-      <c r="B3" s="1">
-        <v>50</v>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2">
         <v>8.6999999999999994E-2</v>
@@ -548,14 +555,14 @@
       <c r="A4" s="3">
         <v>55</v>
       </c>
-      <c r="B4" s="1">
-        <v>50</v>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2">
         <v>9.7500000000000003E-2</v>
@@ -565,14 +572,14 @@
       <c r="A5" s="3">
         <v>55</v>
       </c>
-      <c r="B5" s="1">
-        <v>50</v>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2">
         <v>0.1595</v>
@@ -582,14 +589,14 @@
       <c r="A6" s="3">
         <v>55</v>
       </c>
-      <c r="B6" s="1">
-        <v>50</v>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2">
         <v>0.105</v>
@@ -599,14 +606,14 @@
       <c r="A7" s="3">
         <v>55</v>
       </c>
-      <c r="B7" s="1">
-        <v>50</v>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2">
         <v>0.14400000000000002</v>
@@ -616,14 +623,14 @@
       <c r="A8" s="3">
         <v>55</v>
       </c>
-      <c r="B8" s="1">
-        <v>50</v>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="2">
         <v>0.34949999999999998</v>
@@ -633,14 +640,14 @@
       <c r="A9" s="3">
         <v>68</v>
       </c>
-      <c r="B9" s="1">
-        <v>200</v>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="2">
         <v>0.11899999999999999</v>
@@ -650,14 +657,14 @@
       <c r="A10" s="3">
         <v>79</v>
       </c>
-      <c r="B10" s="1">
-        <v>200</v>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="2">
         <v>0.08</v>
@@ -667,14 +674,14 @@
       <c r="A11" s="3">
         <v>70</v>
       </c>
-      <c r="B11" s="1">
-        <v>200</v>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="2">
         <v>0.11499999999999999</v>
@@ -684,14 +691,14 @@
       <c r="A12" s="3">
         <v>68</v>
       </c>
-      <c r="B12" s="1">
-        <v>200</v>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" s="2">
         <v>8.6000000000000007E-2</v>
@@ -701,14 +708,14 @@
       <c r="A13" s="3">
         <v>74</v>
       </c>
-      <c r="B13" s="1">
-        <v>200</v>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" s="2">
         <v>0.16975000000000001</v>
@@ -718,14 +725,14 @@
       <c r="A14" s="3">
         <v>70</v>
       </c>
-      <c r="B14" s="1">
-        <v>200</v>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="2">
         <v>0.11775000000000002</v>
@@ -735,14 +742,14 @@
       <c r="A15" s="3">
         <v>66</v>
       </c>
-      <c r="B15" s="1">
-        <v>200</v>
+      <c r="B15" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15" s="2">
         <v>4.3500000000000004E-2</v>
@@ -752,14 +759,14 @@
       <c r="A16" s="3">
         <v>75</v>
       </c>
-      <c r="B16" s="1">
-        <v>200</v>
+      <c r="B16" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" s="2">
         <v>0.156</v>
@@ -769,14 +776,14 @@
       <c r="A17" s="3">
         <v>82</v>
       </c>
-      <c r="B17" s="1">
-        <v>200</v>
+      <c r="B17" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17" s="2">
         <v>0.14350000000000002</v>
@@ -786,14 +793,14 @@
       <c r="A18" s="3">
         <v>82</v>
       </c>
-      <c r="B18" s="1">
-        <v>200</v>
+      <c r="B18" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18" s="2">
         <v>0.13</v>
@@ -803,14 +810,14 @@
       <c r="A19" s="3">
         <v>48</v>
       </c>
-      <c r="B19" s="1">
-        <v>50</v>
+      <c r="B19" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E19" s="2">
         <v>6.9249999999999992E-2</v>
@@ -820,14 +827,14 @@
       <c r="A20" s="3">
         <v>63</v>
       </c>
-      <c r="B20" s="1">
-        <v>50</v>
+      <c r="B20" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20" s="2">
         <v>6.8500000000000005E-2</v>
@@ -837,14 +844,14 @@
       <c r="A21" s="3">
         <v>74</v>
       </c>
-      <c r="B21" s="1">
-        <v>50</v>
+      <c r="B21" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E21" s="2">
         <v>1.925E-2</v>
@@ -854,14 +861,14 @@
       <c r="A22" s="3">
         <v>71</v>
       </c>
-      <c r="B22" s="1">
-        <v>50</v>
+      <c r="B22" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E22" s="2">
         <v>0.1285</v>
@@ -871,14 +878,14 @@
       <c r="A23" s="3">
         <v>69</v>
       </c>
-      <c r="B23" s="1">
-        <v>50</v>
+      <c r="B23" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23" s="2">
         <v>0.10725000000000001</v>
@@ -888,14 +895,14 @@
       <c r="A24" s="3">
         <v>71</v>
       </c>
-      <c r="B24" s="1">
-        <v>50</v>
+      <c r="B24" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24" s="2">
         <v>0.16699999999999998</v>
@@ -905,14 +912,14 @@
       <c r="A25" s="3">
         <v>69</v>
       </c>
-      <c r="B25" s="1">
-        <v>50</v>
+      <c r="B25" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E25" s="2">
         <v>9.1499999999999998E-2</v>
@@ -922,14 +929,14 @@
       <c r="A26" s="3">
         <v>79</v>
       </c>
-      <c r="B26" s="1">
-        <v>200</v>
+      <c r="B26" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E26" s="2">
         <v>0.20800000000000002</v>
@@ -939,14 +946,14 @@
       <c r="A27" s="3">
         <v>55</v>
       </c>
-      <c r="B27" s="1">
-        <v>200</v>
+      <c r="B27" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E27" s="2">
         <v>0.32250000000000001</v>
@@ -956,14 +963,14 @@
       <c r="A28" s="3">
         <v>52</v>
       </c>
-      <c r="B28" s="1">
-        <v>200</v>
+      <c r="B28" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E28" s="2">
         <v>0.30249999999999999</v>
@@ -973,14 +980,14 @@
       <c r="A29" s="3">
         <v>55</v>
       </c>
-      <c r="B29" s="1">
-        <v>200</v>
+      <c r="B29" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29" s="2">
         <v>0.37</v>
@@ -990,14 +997,14 @@
       <c r="A30" s="3">
         <v>84</v>
       </c>
-      <c r="B30" s="1">
-        <v>200</v>
+      <c r="B30" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30" s="2">
         <v>0.22750000000000001</v>
@@ -1007,14 +1014,14 @@
       <c r="A31" s="3">
         <v>51</v>
       </c>
-      <c r="B31" s="1">
-        <v>200</v>
+      <c r="B31" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E31" s="2">
         <v>0.23250000000000001</v>
@@ -1024,14 +1031,14 @@
       <c r="A32" s="3">
         <v>78</v>
       </c>
-      <c r="B32" s="1">
-        <v>200</v>
+      <c r="B32" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E32" s="2">
         <v>3.2000000000000001E-2</v>
@@ -1041,14 +1048,14 @@
       <c r="A33" s="3">
         <v>51</v>
       </c>
-      <c r="B33" s="1">
-        <v>200</v>
+      <c r="B33" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E33" s="2">
         <v>0.21024999999999999</v>
@@ -1058,14 +1065,14 @@
       <c r="A34" s="3">
         <v>68</v>
       </c>
-      <c r="B34" s="1">
-        <v>200</v>
+      <c r="B34" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E34" s="2">
         <v>0.14350000000000002</v>
@@ -1075,14 +1082,14 @@
       <c r="A35" s="3">
         <v>31</v>
       </c>
-      <c r="B35" s="1">
-        <v>50</v>
+      <c r="B35" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E35" s="2">
         <v>0.28300000000000003</v>
@@ -1092,14 +1099,14 @@
       <c r="A36" s="3">
         <v>54</v>
       </c>
-      <c r="B36" s="1">
-        <v>50</v>
+      <c r="B36" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E36" s="2">
         <v>0.16500000000000001</v>
@@ -1109,14 +1116,14 @@
       <c r="A37" s="3">
         <v>54</v>
       </c>
-      <c r="B37" s="1">
-        <v>50</v>
+      <c r="B37" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E37" s="2">
         <v>0.08</v>
@@ -1126,14 +1133,14 @@
       <c r="A38" s="3">
         <v>63</v>
       </c>
-      <c r="B38" s="1">
-        <v>50</v>
+      <c r="B38" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E38" s="2">
         <v>7.2750000000000009E-2</v>
@@ -1143,14 +1150,14 @@
       <c r="A39" s="3">
         <v>39</v>
       </c>
-      <c r="B39" s="1">
-        <v>50</v>
+      <c r="B39" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E39" s="2">
         <v>0.15775</v>
@@ -1160,14 +1167,14 @@
       <c r="A40" s="3">
         <v>63</v>
       </c>
-      <c r="B40" s="1">
-        <v>50</v>
+      <c r="B40" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E40" s="2">
         <v>0.2525</v>
@@ -1177,14 +1184,14 @@
       <c r="A41" s="3">
         <v>47</v>
       </c>
-      <c r="B41" s="1">
-        <v>50</v>
+      <c r="B41" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E41" s="2">
         <v>0.13825000000000001</v>
@@ -1194,14 +1201,14 @@
       <c r="A42" s="3">
         <v>100</v>
       </c>
-      <c r="B42" s="1">
-        <v>200</v>
+      <c r="B42" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E42" s="2">
         <v>6.5750000000000003E-2</v>
@@ -1211,14 +1218,14 @@
       <c r="A43" s="3">
         <v>73</v>
       </c>
-      <c r="B43" s="1">
-        <v>200</v>
+      <c r="B43" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E43" s="2">
         <v>0.21725</v>
@@ -1228,14 +1235,14 @@
       <c r="A44" s="3">
         <v>68</v>
       </c>
-      <c r="B44" s="1">
-        <v>200</v>
+      <c r="B44" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E44" s="2">
         <v>0.25</v>
@@ -1245,14 +1252,14 @@
       <c r="A45" s="3">
         <v>54</v>
       </c>
-      <c r="B45" s="1">
-        <v>200</v>
+      <c r="B45" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E45" s="2">
         <v>0.2</v>
@@ -1262,14 +1269,14 @@
       <c r="A46" s="3">
         <v>73</v>
       </c>
-      <c r="B46" s="1">
-        <v>200</v>
+      <c r="B46" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E46" s="2">
         <v>0.20750000000000002</v>
@@ -1279,14 +1286,14 @@
       <c r="A47" s="3">
         <v>54</v>
       </c>
-      <c r="B47" s="1">
-        <v>200</v>
+      <c r="B47" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E47" s="2">
         <v>9.9750000000000005E-2</v>
@@ -1296,14 +1303,14 @@
       <c r="A48" s="3">
         <v>72</v>
       </c>
-      <c r="B48" s="1">
-        <v>200</v>
+      <c r="B48" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E48" s="2">
         <v>0.24149999999999999</v>
@@ -1313,14 +1320,14 @@
       <c r="A49" s="3">
         <v>69</v>
       </c>
-      <c r="B49" s="1">
-        <v>200</v>
+      <c r="B49" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E49" s="2">
         <v>8.1500000000000003E-2</v>
@@ -1330,14 +1337,14 @@
       <c r="A50" s="3">
         <v>72</v>
       </c>
-      <c r="B50" s="1">
-        <v>50</v>
+      <c r="B50" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E50" s="2">
         <v>8.5000000000000006E-2</v>
@@ -1347,14 +1354,14 @@
       <c r="A51" s="3">
         <v>47</v>
       </c>
-      <c r="B51" s="1">
-        <v>50</v>
+      <c r="B51" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E51" s="2">
         <v>1.4E-2</v>
@@ -1364,14 +1371,14 @@
       <c r="A52" s="3">
         <v>72</v>
       </c>
-      <c r="B52" s="1">
-        <v>50</v>
+      <c r="B52" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E52" s="2">
         <v>0.33</v>
@@ -1381,14 +1388,14 @@
       <c r="A53" s="3">
         <v>83</v>
       </c>
-      <c r="B53" s="1">
-        <v>50</v>
+      <c r="B53" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E53" s="2">
         <v>0.14000000000000001</v>
@@ -1398,14 +1405,14 @@
       <c r="A54" s="3">
         <v>62</v>
       </c>
-      <c r="B54" s="1">
-        <v>50</v>
+      <c r="B54" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E54" s="2">
         <v>0.23</v>
@@ -1415,14 +1422,14 @@
       <c r="A55" s="3">
         <v>83</v>
       </c>
-      <c r="B55" s="1">
-        <v>50</v>
+      <c r="B55" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E55" s="2">
         <v>3.1E-2</v>
@@ -1432,14 +1439,14 @@
       <c r="A56" s="3">
         <v>68</v>
       </c>
-      <c r="B56" s="1">
-        <v>50</v>
+      <c r="B56" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E56" s="2">
         <v>3.0000000000000001E-3</v>
@@ -1449,14 +1456,14 @@
       <c r="A57" s="3">
         <v>61</v>
       </c>
-      <c r="B57" s="1">
-        <v>200</v>
+      <c r="B57" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E57" s="2">
         <v>0.19</v>
@@ -1466,14 +1473,14 @@
       <c r="A58" s="3">
         <v>63</v>
       </c>
-      <c r="B58" s="1">
-        <v>200</v>
+      <c r="B58" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E58" s="2">
         <v>0.12</v>
@@ -1483,14 +1490,14 @@
       <c r="A59" s="3">
         <v>79</v>
       </c>
-      <c r="B59" s="1">
-        <v>200</v>
+      <c r="B59" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E59" s="2">
         <v>8.8999999999999996E-2</v>
@@ -1500,14 +1507,14 @@
       <c r="A60" s="3">
         <v>57</v>
       </c>
-      <c r="B60" s="1">
-        <v>200</v>
+      <c r="B60" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E60" s="2">
         <v>0.36</v>
@@ -1517,14 +1524,14 @@
       <c r="A61" s="3">
         <v>80</v>
       </c>
-      <c r="B61" s="1">
-        <v>200</v>
+      <c r="B61" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E61" s="2">
         <v>6.6000000000000003E-2</v>
@@ -1534,14 +1541,14 @@
       <c r="A62" s="3">
         <v>69</v>
       </c>
-      <c r="B62" s="1">
-        <v>200</v>
+      <c r="B62" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E62" s="2">
         <v>5.0999999999999997E-2</v>
@@ -1551,14 +1558,14 @@
       <c r="A63" s="3">
         <v>80</v>
       </c>
-      <c r="B63" s="1">
-        <v>200</v>
+      <c r="B63" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E63" s="2">
         <v>7.1999999999999995E-2</v>
@@ -1568,14 +1575,14 @@
       <c r="A64" s="3">
         <v>80</v>
       </c>
-      <c r="B64" s="1">
-        <v>200</v>
+      <c r="B64" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E64" s="2">
         <v>0.17</v>
@@ -1585,14 +1592,14 @@
       <c r="A65" s="3">
         <v>20</v>
       </c>
-      <c r="B65" s="1">
-        <v>50</v>
+      <c r="B65" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E65" s="2">
         <v>0.49</v>
@@ -1602,14 +1609,14 @@
       <c r="A66" s="3">
         <v>84</v>
       </c>
-      <c r="B66" s="1">
-        <v>50</v>
+      <c r="B66" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E66" s="2">
         <v>1.4999999999999999E-2</v>
@@ -1619,14 +1626,14 @@
       <c r="A67" s="3">
         <v>60</v>
       </c>
-      <c r="B67" s="1">
-        <v>50</v>
+      <c r="B67" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E67" s="2">
         <v>4.7E-2</v>
@@ -1636,14 +1643,14 @@
       <c r="A68" s="3">
         <v>84</v>
       </c>
-      <c r="B68" s="1">
-        <v>50</v>
+      <c r="B68" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E68" s="2">
         <v>0.2</v>
@@ -1653,14 +1660,14 @@
       <c r="A69" s="3">
         <v>97</v>
       </c>
-      <c r="B69" s="1">
-        <v>50</v>
+      <c r="B69" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E69" s="2">
         <v>4.3999999999999997E-2</v>
@@ -1670,14 +1677,14 @@
       <c r="A70" s="3">
         <v>75</v>
       </c>
-      <c r="B70" s="1">
-        <v>50</v>
+      <c r="B70" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E70" s="2">
         <v>9.0999999999999998E-2</v>
@@ -1687,14 +1694,14 @@
       <c r="A71" s="3">
         <v>97</v>
       </c>
-      <c r="B71" s="1">
-        <v>50</v>
+      <c r="B71" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E71" s="2">
         <v>1.0999999999999999E-2</v>
@@ -1704,14 +1711,14 @@
       <c r="A72" s="3">
         <v>82</v>
       </c>
-      <c r="B72" s="1">
-        <v>50</v>
+      <c r="B72" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E72" s="2">
         <v>1.2999999999999999E-3</v>
@@ -1721,14 +1728,14 @@
       <c r="A73" s="3">
         <v>53</v>
       </c>
-      <c r="B73" s="1">
-        <v>200</v>
+      <c r="B73" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E73" s="2">
         <v>0.11</v>
@@ -1738,14 +1745,14 @@
       <c r="A74" s="3">
         <v>71</v>
       </c>
-      <c r="B74" s="1">
-        <v>200</v>
+      <c r="B74" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E74" s="2">
         <v>0.11</v>
@@ -1755,14 +1762,14 @@
       <c r="A75" s="3">
         <v>85</v>
       </c>
-      <c r="B75" s="1">
-        <v>200</v>
+      <c r="B75" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E75" s="2">
         <v>0.26</v>
@@ -1772,14 +1779,14 @@
       <c r="A76" s="3">
         <v>55</v>
       </c>
-      <c r="B76" s="1">
-        <v>200</v>
+      <c r="B76" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E76" s="2">
         <v>0.18</v>
@@ -1789,14 +1796,14 @@
       <c r="A77" s="3">
         <v>76</v>
       </c>
-      <c r="B77" s="1">
-        <v>200</v>
+      <c r="B77" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E77" s="2">
         <v>5.6000000000000001E-2</v>
@@ -1806,14 +1813,14 @@
       <c r="A78" s="3">
         <v>86</v>
       </c>
-      <c r="B78" s="1">
-        <v>200</v>
+      <c r="B78" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E78" s="2">
         <v>7.9000000000000001E-2</v>
@@ -1823,14 +1830,14 @@
       <c r="A79" s="3">
         <v>77</v>
       </c>
-      <c r="B79" s="1">
-        <v>200</v>
+      <c r="B79" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E79" s="2">
         <v>1.7999999999999999E-2</v>
@@ -1840,14 +1847,14 @@
       <c r="A80" s="3">
         <v>87</v>
       </c>
-      <c r="B80" s="1">
-        <v>200</v>
+      <c r="B80" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E80" s="2">
         <v>0.17</v>
@@ -1857,14 +1864,14 @@
       <c r="A81" s="3">
         <v>53</v>
       </c>
-      <c r="B81" s="1">
-        <v>200</v>
+      <c r="B81" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E81" s="2">
         <v>9.8000000000000004E-2</v>
@@ -1874,14 +1881,14 @@
       <c r="A82" s="3">
         <v>83</v>
       </c>
-      <c r="B82" s="1">
-        <v>200</v>
+      <c r="B82" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E82" s="2">
         <v>8.4000000000000005E-2</v>
@@ -1891,14 +1898,14 @@
       <c r="A83" s="3">
         <v>28</v>
       </c>
-      <c r="B83" s="1">
-        <v>50</v>
+      <c r="B83" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E83" s="2">
         <v>0.28999999999999998</v>
@@ -1908,14 +1915,14 @@
       <c r="A84" s="3">
         <v>95</v>
       </c>
-      <c r="B84" s="1">
-        <v>50</v>
+      <c r="B84" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E84" s="2">
         <v>0.02</v>
@@ -1925,14 +1932,14 @@
       <c r="A85" s="3">
         <v>75</v>
       </c>
-      <c r="B85" s="1">
-        <v>50</v>
+      <c r="B85" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E85" s="2">
         <v>1.2999999999999999E-2</v>
@@ -1942,14 +1949,14 @@
       <c r="A86" s="3">
         <v>95</v>
       </c>
-      <c r="B86" s="1">
-        <v>50</v>
+      <c r="B86" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E86" s="2">
         <v>2.1999999999999999E-2</v>
@@ -1959,14 +1966,14 @@
       <c r="A87" s="3">
         <v>109</v>
       </c>
-      <c r="B87" s="1">
-        <v>50</v>
+      <c r="B87" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E87" s="2">
         <v>7.3999999999999996E-2</v>
@@ -1976,14 +1983,14 @@
       <c r="A88" s="3">
         <v>92</v>
       </c>
-      <c r="B88" s="1">
-        <v>50</v>
+      <c r="B88" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E88" s="2">
         <v>5.3E-3</v>
@@ -1993,14 +2000,14 @@
       <c r="A89" s="3">
         <v>109</v>
       </c>
-      <c r="B89" s="1">
-        <v>50</v>
+      <c r="B89" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E89" s="2">
         <v>8.2000000000000007E-3</v>
@@ -2010,14 +2017,14 @@
       <c r="A90" s="3">
         <v>99</v>
       </c>
-      <c r="B90" s="1">
-        <v>50</v>
+      <c r="B90" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E90" s="2">
         <v>1.6999999999999999E-3</v>
@@ -2027,14 +2034,14 @@
       <c r="A91" s="3">
         <v>51</v>
       </c>
-      <c r="B91" s="1">
-        <v>200</v>
+      <c r="B91" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E91" s="2">
         <v>0.12</v>
@@ -2044,14 +2051,14 @@
       <c r="A92" s="3">
         <v>81</v>
       </c>
-      <c r="B92" s="1">
-        <v>200</v>
+      <c r="B92" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E92" s="2">
         <v>0.17</v>
@@ -2061,14 +2068,14 @@
       <c r="A93" s="3">
         <v>83</v>
       </c>
-      <c r="B93" s="1">
-        <v>200</v>
+      <c r="B93" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E93" s="2">
         <v>0.1</v>
@@ -2078,14 +2085,14 @@
       <c r="A94" s="3">
         <v>72</v>
       </c>
-      <c r="B94" s="1">
-        <v>200</v>
+      <c r="B94" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E94" s="2">
         <v>0.11</v>
@@ -2095,14 +2102,14 @@
       <c r="A95" s="3">
         <v>85</v>
       </c>
-      <c r="B95" s="1">
-        <v>200</v>
+      <c r="B95" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E95" s="2">
         <v>4.1000000000000002E-2</v>
@@ -2112,14 +2119,14 @@
       <c r="A96" s="3">
         <v>91</v>
       </c>
-      <c r="B96" s="1">
-        <v>200</v>
+      <c r="B96" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E96" s="2">
         <v>0.12</v>
@@ -2129,14 +2136,14 @@
       <c r="A97" s="3">
         <v>87</v>
       </c>
-      <c r="B97" s="1">
-        <v>200</v>
+      <c r="B97" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E97" s="2">
         <v>7.6999999999999999E-2</v>
@@ -2146,14 +2153,14 @@
       <c r="A98" s="3">
         <v>90</v>
       </c>
-      <c r="B98" s="1">
-        <v>200</v>
+      <c r="B98" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E98" s="2">
         <v>0.33</v>
@@ -2163,14 +2170,14 @@
       <c r="A99" s="3">
         <v>54</v>
       </c>
-      <c r="B99" s="1">
-        <v>200</v>
+      <c r="B99" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E99" s="2">
         <v>0.21</v>
@@ -2180,14 +2187,14 @@
       <c r="A100" s="3">
         <v>22</v>
       </c>
-      <c r="B100" s="1">
-        <v>200</v>
+      <c r="B100" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E100" s="2">
         <v>0.44</v>
@@ -2197,14 +2204,14 @@
       <c r="A101" s="3">
         <v>41.119033872035004</v>
       </c>
-      <c r="B101" s="1">
-        <v>50</v>
+      <c r="B101" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E101" s="2">
         <v>0.11</v>
@@ -2214,14 +2221,14 @@
       <c r="A102" s="3">
         <v>111.93709902039663</v>
       </c>
-      <c r="B102" s="1">
-        <v>50</v>
+      <c r="B102" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E102" s="2">
         <v>7.0000000000000001E-3</v>
@@ -2231,14 +2238,14 @@
       <c r="A103" s="3">
         <v>102.64041159740475</v>
       </c>
-      <c r="B103" s="1">
-        <v>50</v>
+      <c r="B103" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E103" s="2">
         <v>1.0999999999999999E-2</v>
@@ -2248,14 +2255,14 @@
       <c r="A104" s="3">
         <v>111.93709902039663</v>
       </c>
-      <c r="B104" s="1">
-        <v>50</v>
+      <c r="B104" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E104" s="2">
         <v>5.0000000000000001E-3</v>
@@ -2265,14 +2272,14 @@
       <c r="A105" s="3">
         <v>61.120036272729109</v>
       </c>
-      <c r="B105" s="1">
-        <v>50</v>
+      <c r="B105" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E105" s="2">
         <v>0.18</v>
@@ -2282,14 +2289,14 @@
       <c r="A106" s="3">
         <v>58.413989287606782</v>
       </c>
-      <c r="B106" s="1">
-        <v>50</v>
+      <c r="B106" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E106" s="2">
         <v>0.12</v>
@@ -2299,14 +2306,14 @@
       <c r="A107" s="3">
         <v>61.120036272729109</v>
       </c>
-      <c r="B107" s="1">
-        <v>50</v>
+      <c r="B107" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E107" s="2">
         <v>0.15</v>
@@ -2316,14 +2323,14 @@
       <c r="A108" s="3">
         <v>58.413989287606782</v>
       </c>
-      <c r="B108" s="1">
-        <v>50</v>
+      <c r="B108" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E108" s="2">
         <v>0.12</v>
@@ -2333,14 +2340,14 @@
       <c r="A109" s="3">
         <v>55.855547397560287</v>
       </c>
-      <c r="B109" s="1">
-        <v>200</v>
+      <c r="B109" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E109" s="2">
         <v>0.09</v>
@@ -2350,14 +2357,14 @@
       <c r="A110" s="3">
         <v>92.000304417164827</v>
       </c>
-      <c r="B110" s="1">
-        <v>200</v>
+      <c r="B110" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E110" s="2">
         <v>0.03</v>
@@ -2367,14 +2374,14 @@
       <c r="A111" s="3">
         <v>62.416221071227582</v>
       </c>
-      <c r="B111" s="1">
-        <v>200</v>
+      <c r="B111" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E111" s="2">
         <v>0.14000000000000001</v>
@@ -2384,14 +2391,14 @@
       <c r="A112" s="3">
         <v>84.498051136655164</v>
       </c>
-      <c r="B112" s="1">
-        <v>200</v>
+      <c r="B112" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E112" s="2">
         <v>0.24</v>
@@ -2401,14 +2408,14 @@
       <c r="A113" s="3">
         <v>99.90786319219022</v>
       </c>
-      <c r="B113" s="1">
-        <v>200</v>
+      <c r="B113" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E113" s="2">
         <v>0.09</v>
@@ -2418,14 +2425,14 @@
       <c r="A114" s="3">
         <v>97.428041629095659</v>
       </c>
-      <c r="B114" s="1">
-        <v>200</v>
+      <c r="B114" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E114" s="2">
         <v>0.04</v>
@@ -2435,14 +2442,14 @@
       <c r="A115" s="3">
         <v>98.829836708807775</v>
       </c>
-      <c r="B115" s="1">
-        <v>200</v>
+      <c r="B115" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E115" s="2">
         <v>0.05</v>
@@ -2452,14 +2459,14 @@
       <c r="A116" s="3">
         <v>97.650364871035478</v>
       </c>
-      <c r="B116" s="1">
-        <v>200</v>
+      <c r="B116" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E116" s="2">
         <v>0.31</v>
@@ -2469,14 +2476,14 @@
       <c r="A117" s="3">
         <v>55</v>
       </c>
-      <c r="B117" s="1">
-        <v>200</v>
+      <c r="B117" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E117" s="2">
         <v>0.21</v>
@@ -2486,14 +2493,14 @@
       <c r="A118" s="3">
         <v>68</v>
       </c>
-      <c r="B118" s="1">
-        <v>50</v>
+      <c r="B118" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E118" s="2">
         <v>0.06</v>
@@ -2503,14 +2510,14 @@
       <c r="A119" s="3">
         <v>58</v>
       </c>
-      <c r="B119" s="1">
-        <v>50</v>
+      <c r="B119" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E119" s="2">
         <v>0.13</v>
@@ -2520,14 +2527,14 @@
       <c r="A120" s="3">
         <v>20</v>
       </c>
-      <c r="B120" s="1">
-        <v>50</v>
+      <c r="B120" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E120" s="2">
         <v>0.32</v>
@@ -2537,14 +2544,14 @@
       <c r="A121" s="3">
         <v>72</v>
       </c>
-      <c r="B121" s="1">
-        <v>50</v>
+      <c r="B121" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E121" s="2">
         <v>0.15</v>
@@ -2554,14 +2561,14 @@
       <c r="A122" s="3">
         <v>72</v>
       </c>
-      <c r="B122" s="1">
-        <v>50</v>
+      <c r="B122" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E122" s="2">
         <v>0.03</v>
@@ -2571,14 +2578,14 @@
       <c r="A123" s="3">
         <v>75</v>
       </c>
-      <c r="B123" s="1">
-        <v>50</v>
+      <c r="B123" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E123" s="2">
         <v>0.08</v>
@@ -2588,14 +2595,14 @@
       <c r="A124" s="3">
         <v>72</v>
       </c>
-      <c r="B124" s="1">
-        <v>50</v>
+      <c r="B124" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E124" s="2">
         <v>0.06</v>
@@ -2605,14 +2612,14 @@
       <c r="A125" s="3">
         <v>75</v>
       </c>
-      <c r="B125" s="1">
-        <v>50</v>
+      <c r="B125" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E125" s="2">
         <v>0.12</v>
@@ -2622,14 +2629,14 @@
       <c r="A126" s="3">
         <v>50</v>
       </c>
-      <c r="B126" s="1">
-        <v>200</v>
+      <c r="B126" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E126" s="2">
         <v>0.26</v>
@@ -2639,14 +2646,14 @@
       <c r="A127" s="3">
         <v>50</v>
       </c>
-      <c r="B127" s="1">
-        <v>200</v>
+      <c r="B127" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E127" s="2">
         <v>0.25</v>
@@ -2656,14 +2663,14 @@
       <c r="A128" s="3">
         <v>77</v>
       </c>
-      <c r="B128" s="1">
-        <v>200</v>
+      <c r="B128" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E128" s="2">
         <v>0.16</v>
@@ -2673,14 +2680,14 @@
       <c r="A129" s="3">
         <v>91</v>
       </c>
-      <c r="B129" s="1">
-        <v>200</v>
+      <c r="B129" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E129" s="2">
         <v>0.22</v>
@@ -2690,14 +2697,14 @@
       <c r="A130" s="3">
         <v>59</v>
       </c>
-      <c r="B130" s="1">
-        <v>200</v>
+      <c r="B130" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E130" s="2">
         <v>0.18</v>
@@ -2707,14 +2714,14 @@
       <c r="A131" s="3">
         <v>59</v>
       </c>
-      <c r="B131" s="1">
-        <v>200</v>
+      <c r="B131" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E131" s="2">
         <v>0.1</v>
@@ -2724,14 +2731,14 @@
       <c r="A132" s="3">
         <v>112</v>
       </c>
-      <c r="B132" s="1">
-        <v>200</v>
+      <c r="B132" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E132" s="2">
         <v>2.9000000000000001E-2</v>
@@ -2741,14 +2748,14 @@
       <c r="A133" s="3">
         <v>108</v>
       </c>
-      <c r="B133" s="1">
-        <v>200</v>
+      <c r="B133" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E133" s="2">
         <v>0.17</v>
@@ -2758,14 +2765,14 @@
       <c r="A134" s="3">
         <v>69</v>
       </c>
-      <c r="B134" s="1">
-        <v>200</v>
+      <c r="B134" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E134" s="2">
         <v>0.2</v>
@@ -2775,14 +2782,14 @@
       <c r="A135" s="3">
         <v>26</v>
       </c>
-      <c r="B135" s="1">
-        <v>200</v>
+      <c r="B135" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E135" s="2">
         <v>0.8</v>
@@ -2792,14 +2799,14 @@
       <c r="A136" s="3">
         <v>90</v>
       </c>
-      <c r="B136" s="1">
-        <v>50</v>
+      <c r="B136" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E136" s="2">
         <v>4.3999999999999997E-2</v>
@@ -2809,14 +2816,14 @@
       <c r="A137" s="3">
         <v>106</v>
       </c>
-      <c r="B137" s="1">
-        <v>50</v>
+      <c r="B137" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E137" s="2">
         <v>2.2000000000000001E-3</v>
@@ -2826,14 +2833,14 @@
       <c r="A138" s="3">
         <v>110</v>
       </c>
-      <c r="B138" s="1">
-        <v>50</v>
+      <c r="B138" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E138" s="2">
         <v>1.2E-2</v>
@@ -2843,14 +2850,14 @@
       <c r="A139" s="3">
         <v>45</v>
       </c>
-      <c r="B139" s="1">
-        <v>50</v>
+      <c r="B139" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E139" s="2">
         <v>4.2999999999999997E-2</v>
@@ -2860,14 +2867,14 @@
       <c r="A140" s="3">
         <v>110</v>
       </c>
-      <c r="B140" s="1">
-        <v>50</v>
+      <c r="B140" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E140" s="2">
         <v>3.6999999999999998E-2</v>
@@ -2877,14 +2884,14 @@
       <c r="A141" s="3">
         <v>51</v>
       </c>
-      <c r="B141" s="1">
-        <v>200</v>
+      <c r="B141" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E141" s="2">
         <v>9.9000000000000005E-2</v>
@@ -2894,14 +2901,14 @@
       <c r="A142" s="3">
         <v>55</v>
       </c>
-      <c r="B142" s="1">
-        <v>200</v>
+      <c r="B142" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E142" s="2">
         <v>0.18099999999999999</v>
@@ -2911,14 +2918,14 @@
       <c r="A143" s="3">
         <v>105</v>
       </c>
-      <c r="B143" s="1">
-        <v>200</v>
+      <c r="B143" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E143" s="2">
         <v>0.151</v>
@@ -2928,14 +2935,14 @@
       <c r="A144" s="3">
         <v>55</v>
       </c>
-      <c r="B144" s="1">
-        <v>200</v>
+      <c r="B144" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E144" s="2">
         <v>0.17399999999999999</v>
@@ -2945,14 +2952,14 @@
       <c r="A145" s="3">
         <v>71</v>
       </c>
-      <c r="B145" s="1">
-        <v>200</v>
+      <c r="B145" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E145" s="2">
         <v>0.14399999999999999</v>
@@ -2962,14 +2969,14 @@
       <c r="A146" s="3">
         <v>73</v>
       </c>
-      <c r="B146" s="1">
-        <v>200</v>
+      <c r="B146" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E146" s="2">
         <v>6.5000000000000002E-2</v>
@@ -2979,14 +2986,14 @@
       <c r="A147" s="3">
         <v>65</v>
       </c>
-      <c r="B147" s="1">
-        <v>200</v>
+      <c r="B147" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E147" s="2">
         <v>9.9000000000000005E-2</v>
@@ -2996,14 +3003,14 @@
       <c r="A148" s="3">
         <v>55</v>
       </c>
-      <c r="B148" s="1">
-        <v>200</v>
+      <c r="B148" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E148" s="2">
         <v>0.19900000000000001</v>
@@ -3013,14 +3020,14 @@
       <c r="A149" s="3">
         <v>92</v>
       </c>
-      <c r="B149" s="1">
-        <v>200</v>
+      <c r="B149" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E149" s="2">
         <v>1.7999999999999999E-2</v>
@@ -3030,14 +3037,14 @@
       <c r="A150" s="3">
         <v>101</v>
       </c>
-      <c r="B150" s="1">
-        <v>200</v>
+      <c r="B150" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E150" s="2">
         <v>2.8000000000000001E-2</v>
@@ -3047,14 +3054,14 @@
       <c r="A151" s="3">
         <v>17.517377962009917</v>
       </c>
-      <c r="B151" s="1">
-        <v>50</v>
+      <c r="B151" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E151" s="2">
         <v>0.26400000000000001</v>
@@ -3064,14 +3071,14 @@
       <c r="A152" s="3">
         <v>61.77870599457885</v>
       </c>
-      <c r="B152" s="1">
-        <v>50</v>
+      <c r="B152" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E152" s="2">
         <v>0.16900000000000001</v>
@@ -3081,14 +3088,14 @@
       <c r="A153" s="3">
         <v>72.192198794753665</v>
       </c>
-      <c r="B153" s="1">
-        <v>50</v>
+      <c r="B153" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E153" s="2">
         <v>0.121</v>
@@ -3098,14 +3105,14 @@
       <c r="A154" s="3">
         <v>61.77870599457885</v>
       </c>
-      <c r="B154" s="1">
-        <v>50</v>
+      <c r="B154" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E154" s="2">
         <v>8.1000000000000003E-2</v>
@@ -3115,14 +3122,14 @@
       <c r="A155" s="3">
         <v>54.75945986643832</v>
       </c>
-      <c r="B155" s="1">
-        <v>50</v>
+      <c r="B155" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E155" s="2">
         <v>1.2999999999999999E-2</v>
@@ -3132,14 +3139,14 @@
       <c r="A156" s="3">
         <v>68.647531136329349</v>
       </c>
-      <c r="B156" s="1">
-        <v>50</v>
+      <c r="B156" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E156" s="2">
         <v>0.125</v>
@@ -3149,14 +3156,14 @@
       <c r="A157" s="3">
         <v>59.502316103076147</v>
       </c>
-      <c r="B157" s="1">
-        <v>50</v>
+      <c r="B157" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E157" s="2">
         <v>2.1999999999999999E-2</v>
@@ -3166,14 +3173,14 @@
       <c r="A158" s="3">
         <v>68.647531136329349</v>
       </c>
-      <c r="B158" s="1">
-        <v>50</v>
+      <c r="B158" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E158" s="2">
         <v>5.6000000000000001E-2</v>
@@ -3183,14 +3190,14 @@
       <c r="A159" s="3">
         <v>62.070733212763677</v>
       </c>
-      <c r="B159" s="1">
-        <v>200</v>
+      <c r="B159" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E159" s="2">
         <v>9.6000000000000002E-2</v>
@@ -3200,14 +3207,14 @@
       <c r="A160" s="3">
         <v>67.5276919812991</v>
       </c>
-      <c r="B160" s="1">
-        <v>200</v>
+      <c r="B160" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E160" s="2">
         <v>0.18</v>
@@ -3217,14 +3224,14 @@
       <c r="A161" s="3">
         <v>58.154338572694115</v>
       </c>
-      <c r="B161" s="1">
-        <v>200</v>
+      <c r="B161" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E161" s="2">
         <v>0.23100000000000001</v>
@@ -3234,14 +3241,14 @@
       <c r="A162" s="3">
         <v>68.598063847619173</v>
       </c>
-      <c r="B162" s="1">
-        <v>200</v>
+      <c r="B162" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E162" s="2">
         <v>0.17899999999999999</v>
@@ -3251,14 +3258,14 @@
       <c r="A163" s="3">
         <v>78.549942896124691</v>
       </c>
-      <c r="B163" s="1">
-        <v>200</v>
+      <c r="B163" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E163" s="2">
         <v>0.16600000000000001</v>
@@ -3268,14 +3275,14 @@
       <c r="A164" s="3">
         <v>72.068108088170078</v>
       </c>
-      <c r="B164" s="1">
-        <v>200</v>
+      <c r="B164" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E164" s="2">
         <v>4.8000000000000001E-2</v>
@@ -3285,14 +3292,14 @@
       <c r="A165" s="3">
         <v>58.177134830547587</v>
       </c>
-      <c r="B165" s="1">
-        <v>200</v>
+      <c r="B165" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E165" s="2">
         <v>9.5000000000000001E-2</v>
@@ -3302,14 +3309,14 @@
       <c r="A166" s="3">
         <v>57.311057015838571</v>
       </c>
-      <c r="B166" s="1">
-        <v>200</v>
+      <c r="B166" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E166" s="2">
         <v>0.29399999999999998</v>
@@ -3319,14 +3326,14 @@
       <c r="A167" s="3">
         <v>112</v>
       </c>
-      <c r="B167" s="1">
-        <v>200</v>
+      <c r="B167" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E167" s="2">
         <v>0.109</v>
@@ -3336,14 +3343,14 @@
       <c r="A168" s="3">
         <v>71</v>
       </c>
-      <c r="B168" s="1">
-        <v>200</v>
+      <c r="B168" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E168" s="2">
         <v>0.371</v>
@@ -3353,14 +3360,14 @@
       <c r="A169" s="3">
         <v>29</v>
       </c>
-      <c r="B169" s="1">
-        <v>50</v>
+      <c r="B169" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E169" s="2">
         <v>0.32</v>
@@ -3370,14 +3377,14 @@
       <c r="A170" s="3">
         <v>78</v>
       </c>
-      <c r="B170" s="1">
-        <v>50</v>
+      <c r="B170" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E170" s="2">
         <v>0.08</v>
@@ -3387,14 +3394,14 @@
       <c r="A171" s="3">
         <v>106</v>
       </c>
-      <c r="B171" s="1">
-        <v>50</v>
+      <c r="B171" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E171" s="2">
         <v>0.03</v>
@@ -3404,14 +3411,14 @@
       <c r="A172" s="3">
         <v>78</v>
       </c>
-      <c r="B172" s="1">
-        <v>50</v>
+      <c r="B172" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E172" s="2">
         <v>0.09</v>
@@ -3421,14 +3428,14 @@
       <c r="A173" s="3">
         <v>74</v>
       </c>
-      <c r="B173" s="1">
-        <v>50</v>
+      <c r="B173" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E173" s="2">
         <v>0.03</v>
@@ -3438,14 +3445,14 @@
       <c r="A174" s="3">
         <v>85</v>
       </c>
-      <c r="B174" s="1">
-        <v>50</v>
+      <c r="B174" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E174" s="2">
         <v>0.03</v>
@@ -3455,14 +3462,14 @@
       <c r="A175" s="3">
         <v>78</v>
       </c>
-      <c r="B175" s="1">
-        <v>50</v>
+      <c r="B175" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E175" s="2">
         <v>0.02</v>
@@ -3472,14 +3479,14 @@
       <c r="A176" s="3">
         <v>85</v>
       </c>
-      <c r="B176" s="1">
-        <v>50</v>
+      <c r="B176" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E176" s="2">
         <v>0.03</v>
@@ -3489,14 +3496,14 @@
       <c r="A177" s="3">
         <v>69</v>
       </c>
-      <c r="B177" s="1">
-        <v>200</v>
+      <c r="B177" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E177" s="2">
         <v>0.11</v>
@@ -3506,14 +3513,14 @@
       <c r="A178" s="3">
         <v>78</v>
       </c>
-      <c r="B178" s="1">
-        <v>200</v>
+      <c r="B178" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E178" s="2">
         <v>0.09</v>
@@ -3523,14 +3530,14 @@
       <c r="A179" s="3">
         <v>67</v>
       </c>
-      <c r="B179" s="1">
-        <v>200</v>
+      <c r="B179" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E179" s="2">
         <v>0.15</v>
@@ -3540,14 +3547,14 @@
       <c r="A180" s="3">
         <v>53</v>
       </c>
-      <c r="B180" s="1">
-        <v>200</v>
+      <c r="B180" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E180" s="2">
         <v>0.16</v>
@@ -3557,14 +3564,14 @@
       <c r="A181" s="3">
         <v>84</v>
       </c>
-      <c r="B181" s="1">
-        <v>200</v>
+      <c r="B181" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E181" s="2">
         <v>0.11</v>
@@ -3574,14 +3581,14 @@
       <c r="A182" s="3">
         <v>77</v>
       </c>
-      <c r="B182" s="1">
-        <v>200</v>
+      <c r="B182" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E182" s="2">
         <v>0.09</v>
@@ -3591,14 +3598,14 @@
       <c r="A183" s="3">
         <v>71</v>
       </c>
-      <c r="B183" s="1">
-        <v>200</v>
+      <c r="B183" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E183" s="2">
         <v>0.13</v>
@@ -3608,14 +3615,14 @@
       <c r="A184" s="3">
         <v>67</v>
       </c>
-      <c r="B184" s="1">
-        <v>200</v>
+      <c r="B184" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E184" s="2">
         <v>0.02</v>
@@ -3625,14 +3632,14 @@
       <c r="A185" s="3">
         <v>53</v>
       </c>
-      <c r="B185" s="1">
-        <v>200</v>
+      <c r="B185" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E185" s="2">
         <v>0.11</v>
@@ -3642,14 +3649,14 @@
       <c r="A186" s="3">
         <v>79</v>
       </c>
-      <c r="B186" s="1">
-        <v>200</v>
+      <c r="B186" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E186" s="2">
         <v>0.09</v>
@@ -3659,14 +3666,14 @@
       <c r="A187" s="3">
         <v>51</v>
       </c>
-      <c r="B187" s="1">
-        <v>50</v>
+      <c r="B187" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E187" s="2">
         <v>0.14000000000000001</v>
@@ -3676,14 +3683,14 @@
       <c r="A188" s="3">
         <v>53</v>
       </c>
-      <c r="B188" s="1">
-        <v>50</v>
+      <c r="B188" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E188" s="2">
         <v>0.14000000000000001</v>
@@ -3693,14 +3700,14 @@
       <c r="A189" s="3">
         <v>64</v>
       </c>
-      <c r="B189" s="1">
-        <v>50</v>
+      <c r="B189" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E189" s="2">
         <v>0.2</v>
@@ -3710,14 +3717,14 @@
       <c r="A190" s="3">
         <v>116</v>
       </c>
-      <c r="B190" s="1">
-        <v>50</v>
+      <c r="B190" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E190" s="2">
         <v>5.0000000000000001E-3</v>
@@ -3727,14 +3734,14 @@
       <c r="A191" s="3">
         <v>21</v>
       </c>
-      <c r="B191" s="1">
-        <v>50</v>
+      <c r="B191" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E191" s="2">
         <v>0.38</v>
@@ -3744,14 +3751,14 @@
       <c r="A192" s="3">
         <v>80</v>
       </c>
-      <c r="B192" s="1">
-        <v>50</v>
+      <c r="B192" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E192" s="2">
         <v>0.03</v>
@@ -3761,14 +3768,14 @@
       <c r="A193" s="3">
         <v>87</v>
       </c>
-      <c r="B193" s="1">
-        <v>50</v>
+      <c r="B193" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E193" s="2">
         <v>0.03</v>
@@ -3778,14 +3785,14 @@
       <c r="A194" s="3">
         <v>80</v>
       </c>
-      <c r="B194" s="1">
-        <v>50</v>
+      <c r="B194" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E194" s="2">
         <v>0.02</v>
@@ -3795,14 +3802,14 @@
       <c r="A195" s="3">
         <v>88</v>
       </c>
-      <c r="B195" s="1">
-        <v>200</v>
+      <c r="B195" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E195" s="2">
         <v>2.8000000000000001E-2</v>
@@ -3812,14 +3819,14 @@
       <c r="A196" s="3">
         <v>88</v>
       </c>
-      <c r="B196" s="1">
-        <v>200</v>
+      <c r="B196" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E196" s="2">
         <v>0.09</v>
@@ -3829,14 +3836,14 @@
       <c r="A197" s="3">
         <v>87</v>
       </c>
-      <c r="B197" s="1">
-        <v>200</v>
+      <c r="B197" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E197" s="2">
         <v>0.26</v>
@@ -3846,14 +3853,14 @@
       <c r="A198" s="3">
         <v>71</v>
       </c>
-      <c r="B198" s="1">
-        <v>200</v>
+      <c r="B198" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E198" s="2">
         <v>0.12</v>
@@ -3863,14 +3870,14 @@
       <c r="A199" s="3">
         <v>99</v>
       </c>
-      <c r="B199" s="1">
-        <v>200</v>
+      <c r="B199" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E199" s="2">
         <v>0.13</v>
@@ -3880,14 +3887,14 @@
       <c r="A200" s="3">
         <v>93</v>
       </c>
-      <c r="B200" s="1">
-        <v>200</v>
+      <c r="B200" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E200" s="2">
         <v>5.1999999999999998E-2</v>
@@ -3897,14 +3904,14 @@
       <c r="A201" s="3">
         <v>85</v>
       </c>
-      <c r="B201" s="1">
-        <v>200</v>
+      <c r="B201" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E201" s="2">
         <v>2.5000000000000001E-2</v>
@@ -3914,14 +3921,14 @@
       <c r="A202" s="3">
         <v>91</v>
       </c>
-      <c r="B202" s="1">
-        <v>200</v>
+      <c r="B202" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E202" s="2">
         <v>0.64</v>
@@ -3931,14 +3938,14 @@
       <c r="A203" s="3">
         <v>77</v>
       </c>
-      <c r="B203" s="1">
-        <v>200</v>
+      <c r="B203" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E203" s="2">
         <v>0.19</v>
@@ -3948,14 +3955,14 @@
       <c r="A204" s="3">
         <v>79</v>
       </c>
-      <c r="B204" s="1">
-        <v>200</v>
+      <c r="B204" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E204" s="2">
         <v>0.32</v>
@@ -3965,14 +3972,14 @@
       <c r="A205" s="3">
         <v>91</v>
       </c>
-      <c r="B205" s="1">
-        <v>50</v>
+      <c r="B205" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E205" s="2">
         <v>1E-3</v>
@@ -3982,14 +3989,14 @@
       <c r="A206" s="3">
         <v>88</v>
       </c>
-      <c r="B206" s="1">
-        <v>50</v>
+      <c r="B206" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E206" s="2">
         <v>3.0000000000000001E-3</v>
@@ -3999,14 +4006,14 @@
       <c r="A207" s="3">
         <v>49</v>
       </c>
-      <c r="B207" s="1">
-        <v>50</v>
+      <c r="B207" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E207" s="2">
         <v>0.08</v>
@@ -4016,14 +4023,14 @@
       <c r="A208" s="3">
         <v>35</v>
       </c>
-      <c r="B208" s="1">
-        <v>50</v>
+      <c r="B208" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E208" s="2">
         <v>2.4E-2</v>
@@ -4033,14 +4040,14 @@
       <c r="A209" s="3">
         <v>49</v>
       </c>
-      <c r="B209" s="1">
-        <v>50</v>
+      <c r="B209" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E209" s="2">
         <v>0.03</v>
@@ -4050,14 +4057,14 @@
       <c r="A210" s="3">
         <v>47</v>
       </c>
-      <c r="B210" s="1">
-        <v>200</v>
+      <c r="B210" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E210" s="2">
         <v>0.13</v>
@@ -4067,14 +4074,14 @@
       <c r="A211" s="3">
         <v>91</v>
       </c>
-      <c r="B211" s="1">
-        <v>200</v>
+      <c r="B211" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E211" s="2">
         <v>9.2999999999999999E-2</v>
@@ -4084,14 +4091,14 @@
       <c r="A212" s="3">
         <v>78</v>
       </c>
-      <c r="B212" s="1">
-        <v>200</v>
+      <c r="B212" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E212" s="2">
         <v>1.4999999999999999E-2</v>
@@ -4101,14 +4108,14 @@
       <c r="A213" s="3">
         <v>87</v>
       </c>
-      <c r="B213" s="1">
-        <v>200</v>
+      <c r="B213" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E213" s="2">
         <v>0.11</v>
@@ -4118,14 +4125,14 @@
       <c r="A214" s="3">
         <v>46</v>
       </c>
-      <c r="B214" s="1">
-        <v>200</v>
+      <c r="B214" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E214" s="2">
         <v>0.13</v>
@@ -4135,14 +4142,14 @@
       <c r="A215" s="3">
         <v>57</v>
       </c>
-      <c r="B215" s="1">
-        <v>200</v>
+      <c r="B215" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E215" s="2">
         <v>7.0000000000000007E-2</v>
@@ -4152,14 +4159,14 @@
       <c r="A216" s="3">
         <v>101</v>
       </c>
-      <c r="B216" s="1">
-        <v>200</v>
+      <c r="B216" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E216" s="2">
         <v>1.4999999999999999E-2</v>
@@ -4169,14 +4176,14 @@
       <c r="A217" s="3">
         <v>106</v>
       </c>
-      <c r="B217" s="1">
-        <v>200</v>
+      <c r="B217" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E217" s="2">
         <v>8.5999999999999993E-2</v>
@@ -4186,14 +4193,14 @@
       <c r="A218" s="3">
         <v>89</v>
       </c>
-      <c r="B218" s="1">
-        <v>200</v>
+      <c r="B218" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E218" s="2">
         <v>7.0000000000000007E-2</v>
@@ -4203,14 +4210,14 @@
       <c r="A219" s="3">
         <v>99</v>
       </c>
-      <c r="B219" s="1">
-        <v>200</v>
+      <c r="B219" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E219" s="2">
         <v>0.13</v>
@@ -4220,14 +4227,14 @@
       <c r="A220" s="3">
         <v>17</v>
       </c>
-      <c r="B220" s="1">
-        <v>50</v>
+      <c r="B220" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E220" s="2">
         <v>0.32</v>
@@ -4237,14 +4244,14 @@
       <c r="A221" s="3">
         <v>45</v>
       </c>
-      <c r="B221" s="1">
-        <v>50</v>
+      <c r="B221" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E221" s="2">
         <v>0.39</v>
@@ -4254,14 +4261,14 @@
       <c r="A222" s="3">
         <v>49</v>
       </c>
-      <c r="B222" s="1">
-        <v>50</v>
+      <c r="B222" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E222" s="2">
         <v>0.08</v>
@@ -4271,14 +4278,14 @@
       <c r="A223" s="3">
         <v>49</v>
       </c>
-      <c r="B223" s="1">
-        <v>50</v>
+      <c r="B223" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E223" s="2">
         <v>0.15</v>
@@ -4288,14 +4295,14 @@
       <c r="A224" s="3">
         <v>46</v>
       </c>
-      <c r="B224" s="1">
-        <v>50</v>
+      <c r="B224" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E224" s="2">
         <v>0.21</v>
@@ -4305,14 +4312,14 @@
       <c r="A225" s="3">
         <v>59</v>
       </c>
-      <c r="B225" s="1">
-        <v>50</v>
+      <c r="B225" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E225" s="2">
         <v>0.13</v>
@@ -4322,14 +4329,14 @@
       <c r="A226" s="3">
         <v>42</v>
       </c>
-      <c r="B226" s="1">
-        <v>50</v>
+      <c r="B226" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E226" s="2">
         <v>0.13</v>
@@ -4339,14 +4346,14 @@
       <c r="A227" s="3">
         <v>59</v>
       </c>
-      <c r="B227" s="1">
-        <v>50</v>
+      <c r="B227" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E227" s="2">
         <v>0.05</v>
@@ -4356,14 +4363,14 @@
       <c r="A228" s="3">
         <v>60</v>
       </c>
-      <c r="B228" s="1">
-        <v>200</v>
+      <c r="B228" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E228" s="2">
         <v>7.0000000000000007E-2</v>
@@ -4373,14 +4380,14 @@
       <c r="A229" s="3">
         <v>88</v>
       </c>
-      <c r="B229" s="1">
-        <v>200</v>
+      <c r="B229" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E229" s="2">
         <v>0.05</v>
@@ -4390,14 +4397,14 @@
       <c r="A230" s="3">
         <v>86</v>
       </c>
-      <c r="B230" s="1">
-        <v>200</v>
+      <c r="B230" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E230" s="2">
         <v>1.2999999999999999E-3</v>
@@ -4407,14 +4414,14 @@
       <c r="A231" s="3">
         <v>92</v>
       </c>
-      <c r="B231" s="1">
-        <v>200</v>
+      <c r="B231" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E231" s="2">
         <v>0.06</v>
@@ -4424,14 +4431,14 @@
       <c r="A232" s="3">
         <v>58</v>
       </c>
-      <c r="B232" s="1">
-        <v>200</v>
+      <c r="B232" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E232" s="2">
         <v>0.09</v>
@@ -4441,14 +4448,14 @@
       <c r="A233" s="3">
         <v>77</v>
       </c>
-      <c r="B233" s="1">
-        <v>200</v>
+      <c r="B233" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E233" s="2">
         <v>0.05</v>
@@ -4458,14 +4465,14 @@
       <c r="A234" s="3">
         <v>108</v>
       </c>
-      <c r="B234" s="1">
-        <v>200</v>
+      <c r="B234" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E234" s="2">
         <v>0.02</v>
@@ -4475,14 +4482,14 @@
       <c r="A235" s="3">
         <v>79</v>
       </c>
-      <c r="B235" s="1">
-        <v>200</v>
+      <c r="B235" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E235" s="2">
         <v>0.09</v>
@@ -4492,14 +4499,14 @@
       <c r="A236" s="3">
         <v>88</v>
       </c>
-      <c r="B236" s="1">
-        <v>200</v>
+      <c r="B236" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E236" s="2">
         <v>0.03</v>
@@ -4509,14 +4516,14 @@
       <c r="A237" s="3">
         <v>99</v>
       </c>
-      <c r="B237" s="1">
-        <v>200</v>
+      <c r="B237" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E237" s="2">
         <v>0.11</v>
@@ -4526,14 +4533,14 @@
       <c r="A238" s="3">
         <v>22</v>
       </c>
-      <c r="B238" s="1">
-        <v>50</v>
+      <c r="B238" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E238" s="2">
         <v>0.33</v>
@@ -4543,14 +4550,14 @@
       <c r="A239" s="3">
         <v>53</v>
       </c>
-      <c r="B239" s="1">
-        <v>50</v>
+      <c r="B239" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E239" s="2">
         <v>0.2</v>
@@ -4560,14 +4567,14 @@
       <c r="A240" s="3">
         <v>58</v>
       </c>
-      <c r="B240" s="1">
-        <v>50</v>
+      <c r="B240" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E240" s="2">
         <v>0.17</v>
@@ -4577,14 +4584,14 @@
       <c r="A241" s="3">
         <v>57</v>
       </c>
-      <c r="B241" s="1">
-        <v>50</v>
+      <c r="B241" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E241" s="2">
         <v>0.19</v>
@@ -4594,14 +4601,14 @@
       <c r="A242" s="3">
         <v>53</v>
       </c>
-      <c r="B242" s="1">
-        <v>50</v>
+      <c r="B242" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E242" s="2">
         <v>0.184</v>
@@ -4611,14 +4618,14 @@
       <c r="A243" s="3">
         <v>67</v>
       </c>
-      <c r="B243" s="1">
-        <v>50</v>
+      <c r="B243" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E243" s="2">
         <v>0.02</v>
@@ -4628,14 +4635,14 @@
       <c r="A244" s="3">
         <v>50</v>
       </c>
-      <c r="B244" s="1">
-        <v>50</v>
+      <c r="B244" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E244" s="2">
         <v>0.17</v>
@@ -4645,14 +4652,14 @@
       <c r="A245" s="3">
         <v>67</v>
       </c>
-      <c r="B245" s="1">
-        <v>50</v>
+      <c r="B245" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E245" s="2">
         <v>0.24</v>
@@ -4662,14 +4669,14 @@
       <c r="A246" s="3">
         <v>64</v>
       </c>
-      <c r="B246" s="1">
-        <v>200</v>
+      <c r="B246" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E246" s="2">
         <v>0.06</v>
@@ -4679,14 +4686,14 @@
       <c r="A247" s="3">
         <v>92</v>
       </c>
-      <c r="B247" s="1">
-        <v>200</v>
+      <c r="B247" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E247" s="2">
         <v>0.10100000000000001</v>
@@ -4696,14 +4703,14 @@
       <c r="A248" s="3">
         <v>47</v>
       </c>
-      <c r="B248" s="1">
-        <v>200</v>
+      <c r="B248" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E248" s="2">
         <v>0.113</v>
@@ -4713,14 +4720,14 @@
       <c r="A249" s="3">
         <v>98</v>
       </c>
-      <c r="B249" s="1">
-        <v>200</v>
+      <c r="B249" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E249" s="2">
         <v>3.6999999999999998E-2</v>
@@ -4730,14 +4737,14 @@
       <c r="A250" s="3">
         <v>62</v>
       </c>
-      <c r="B250" s="1">
-        <v>200</v>
+      <c r="B250" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E250" s="2">
         <v>9.6000000000000002E-2</v>
@@ -4747,14 +4754,14 @@
       <c r="A251" s="3">
         <v>88</v>
       </c>
-      <c r="B251" s="1">
-        <v>200</v>
+      <c r="B251" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E251" s="2">
         <v>0.105</v>
@@ -4764,14 +4771,14 @@
       <c r="A252" s="3">
         <v>47</v>
       </c>
-      <c r="B252" s="1">
-        <v>200</v>
+      <c r="B252" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E252" s="2">
         <v>0.11</v>
@@ -4781,14 +4788,14 @@
       <c r="A253" s="3">
         <v>55</v>
       </c>
-      <c r="B253" s="1">
-        <v>200</v>
+      <c r="B253" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E253" s="2">
         <v>0.13</v>
@@ -4798,14 +4805,14 @@
       <c r="A254" s="3">
         <v>93</v>
       </c>
-      <c r="B254" s="1">
-        <v>200</v>
+      <c r="B254" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E254" s="2">
         <v>4.2000000000000003E-2</v>
@@ -4815,14 +4822,14 @@
       <c r="A255" s="3">
         <v>67</v>
       </c>
-      <c r="B255" s="1">
-        <v>200</v>
+      <c r="B255" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E255" s="2">
         <v>0.106</v>
@@ -4832,14 +4839,14 @@
       <c r="A256" s="3">
         <v>29.013518427801969</v>
       </c>
-      <c r="B256" s="1">
-        <v>50</v>
+      <c r="B256" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E256" s="2">
         <v>0.2</v>
@@ -4849,14 +4856,14 @@
       <c r="A257" s="3">
         <v>77.305400000000006</v>
       </c>
-      <c r="B257" s="1">
-        <v>50</v>
+      <c r="B257" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E257" s="2">
         <v>0.19</v>
@@ -4866,14 +4873,14 @@
       <c r="A258" s="3">
         <v>72.669472629276413</v>
       </c>
-      <c r="B258" s="1">
-        <v>50</v>
+      <c r="B258" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E258" s="2">
         <v>0.16</v>
@@ -4883,14 +4890,14 @@
       <c r="A259" s="3">
         <v>75.28202543591523</v>
       </c>
-      <c r="B259" s="1">
-        <v>50</v>
+      <c r="B259" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E259" s="2">
         <v>1.2E-2</v>
@@ -4900,14 +4907,14 @@
       <c r="A260" s="3">
         <v>74.692185576414246</v>
       </c>
-      <c r="B260" s="1">
-        <v>50</v>
+      <c r="B260" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E260" s="2">
         <v>1.4999999999999999E-2</v>
@@ -4917,14 +4924,14 @@
       <c r="A261" s="3">
         <v>83.074014845631012</v>
       </c>
-      <c r="B261" s="1">
-        <v>50</v>
+      <c r="B261" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E261" s="2">
         <v>2.7E-2</v>
@@ -4934,14 +4941,14 @@
       <c r="A262" s="3">
         <v>66.057454370378323</v>
       </c>
-      <c r="B262" s="1">
-        <v>50</v>
+      <c r="B262" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E262" s="2">
         <v>5.3999999999999999E-2</v>
@@ -4951,14 +4958,14 @@
       <c r="A263" s="3">
         <v>83.074014845631012</v>
       </c>
-      <c r="B263" s="1">
-        <v>50</v>
+      <c r="B263" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E263" s="2">
         <v>7.1999999999999995E-2</v>
@@ -4968,14 +4975,14 @@
       <c r="A264" s="3">
         <v>76.194230164252161</v>
       </c>
-      <c r="B264" s="1">
-        <v>200</v>
+      <c r="B264" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E264" s="2">
         <v>0.38</v>
@@ -4985,14 +4992,14 @@
       <c r="A265" s="3">
         <v>49.464030912412234</v>
       </c>
-      <c r="B265" s="1">
-        <v>200</v>
+      <c r="B265" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E265" s="2">
         <v>0.32</v>
@@ -5002,14 +5009,14 @@
       <c r="A266" s="3">
         <v>60.458760594271624</v>
       </c>
-      <c r="B266" s="1">
-        <v>200</v>
+      <c r="B266" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E266" s="2">
         <v>0.32</v>
@@ -5019,14 +5026,14 @@
       <c r="A267" s="3">
         <v>50.209799806659511</v>
       </c>
-      <c r="B267" s="1">
-        <v>200</v>
+      <c r="B267" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E267" s="2">
         <v>0.25</v>
@@ -5036,14 +5043,14 @@
       <c r="A268" s="3">
         <v>81.941558463828926</v>
       </c>
-      <c r="B268" s="1">
-        <v>200</v>
+      <c r="B268" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E268" s="2">
         <v>5.8999999999999997E-2</v>
@@ -5053,14 +5060,14 @@
       <c r="A269" s="3">
         <v>50.209799806659511</v>
       </c>
-      <c r="B269" s="1">
-        <v>200</v>
+      <c r="B269" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E269" s="2">
         <v>0.12</v>
@@ -5070,14 +5077,14 @@
       <c r="A270" s="3">
         <v>55.832099822687098</v>
       </c>
-      <c r="B270" s="1">
-        <v>200</v>
+      <c r="B270" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E270" s="2">
         <v>0.13</v>
@@ -5087,14 +5094,14 @@
       <c r="A271" s="3">
         <v>49.319789699339616</v>
       </c>
-      <c r="B271" s="1">
-        <v>200</v>
+      <c r="B271" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E271" s="2">
         <v>0.28000000000000003</v>
@@ -5104,14 +5111,14 @@
       <c r="A272" s="3">
         <v>104.29947004582391</v>
       </c>
-      <c r="B272" s="1">
-        <v>200</v>
+      <c r="B272" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E272" s="2">
         <v>0.08</v>
@@ -5121,14 +5128,14 @@
       <c r="A273" s="3">
         <v>99.767323363888295</v>
       </c>
-      <c r="B273" s="1">
-        <v>200</v>
+      <c r="B273" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E273" s="2">
         <v>0.16</v>
